--- a/L2_candidates.xlsx
+++ b/L2_candidates.xlsx
@@ -385,6 +385,26 @@
         <v>L2_rejected</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4">
+        <v>311</v>
+      </c>
+      <c r="C4" t="str">
+        <v>abc</v>
+      </c>
+      <c r="D4" t="str">
+        <v>tishya@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>globalTiger</v>
+      </c>
+      <c r="F4" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G4" t="str">
+        <v>L2_selected</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/L2_candidates.xlsx
+++ b/L2_candidates.xlsx
@@ -405,6 +405,46 @@
         <v>L2_selected</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5">
+        <v>317</v>
+      </c>
+      <c r="C5" t="str">
+        <v>cleveland</v>
+      </c>
+      <c r="D5" t="str">
+        <v>cleveland@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>nasa corporation</v>
+      </c>
+      <c r="F5" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G5" t="str">
+        <v>L2_scheduled</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <v>320</v>
+      </c>
+      <c r="C6" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D6" t="str">
+        <v>harsh@mai.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>wipro</v>
+      </c>
+      <c r="F6" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="G6" t="str">
+        <v>L2_TBS</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
